--- a/config/_TableConfig/!enums__.xlsx
+++ b/config/_TableConfig/!enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17140" windowHeight="13830"/>
+    <workbookView windowWidth="31050" windowHeight="11380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1638,8 +1638,8 @@
   <sheetPr/>
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
